--- a/municipal/დემოგრაფია/დაქორწინებულთა რიცხოვნობა/ხობი.xlsx
+++ b/municipal/დემოგრაფია/დაქორწინებულთა რიცხოვნობა/ხობი.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\დემოგრაფია\Tamunas cxrilebi\qarTuli\cx 19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\demo\demo\ქორწინება, განქორწინება 2022\3) დაქორწინებულთა რიცხოვნობა ასაკის და სქესის ქარ. EN\დაქორწინებულთა რიცხოვნობა ასაკის და სქესის მიხედვით\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC67ABDC-4848-4D3D-98A6-4B8B49EA081C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9F67D9-37BE-4097-BD7F-CC62FECD8C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10935" yWindow="1935" windowWidth="9210" windowHeight="6540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1950" windowWidth="28800" windowHeight="10245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateCount="1000" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t>არ არის მითითებული</t>
   </si>
@@ -82,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +152,19 @@
       <name val="Sylfaen"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -331,7 +344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -388,6 +401,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -670,30 +701,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29">
       <c r="A2" s="14"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="15.75" thickBot="1">
       <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29">
       <c r="A4" s="3"/>
       <c r="B4" s="20">
         <v>2010</v>
@@ -743,8 +776,16 @@
         <v>2021</v>
       </c>
       <c r="Y4" s="19"/>
+      <c r="Z4" s="18">
+        <v>2022</v>
+      </c>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="18">
+        <v>2023</v>
+      </c>
+      <c r="AC4" s="19"/>
     </row>
-    <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="15.75" thickBot="1">
       <c r="A5" s="15" t="s">
         <v>16</v>
       </c>
@@ -820,8 +861,20 @@
       <c r="Y5" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="Z5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29">
       <c r="A6" s="17" t="s">
         <v>12</v>
       </c>
@@ -897,8 +950,20 @@
       <c r="Y6" s="11">
         <v>135</v>
       </c>
+      <c r="Z6" s="10">
+        <v>149</v>
+      </c>
+      <c r="AA6" s="11">
+        <v>149</v>
+      </c>
+      <c r="AB6" s="21">
+        <v>169</v>
+      </c>
+      <c r="AC6" s="22">
+        <v>169</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
@@ -974,8 +1039,20 @@
       <c r="Y7" s="13">
         <v>11</v>
       </c>
+      <c r="Z7" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="13">
+        <v>12</v>
+      </c>
+      <c r="AB7" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="24">
+        <v>14</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -1051,8 +1128,20 @@
       <c r="Y8" s="13">
         <v>38</v>
       </c>
+      <c r="Z8" s="12">
+        <v>24</v>
+      </c>
+      <c r="AA8" s="13">
+        <v>35</v>
+      </c>
+      <c r="AB8" s="23">
+        <v>27</v>
+      </c>
+      <c r="AC8" s="24">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -1128,8 +1217,20 @@
       <c r="Y9" s="13">
         <v>35</v>
       </c>
+      <c r="Z9" s="12">
+        <v>36</v>
+      </c>
+      <c r="AA9" s="13">
+        <v>23</v>
+      </c>
+      <c r="AB9" s="23">
+        <v>35</v>
+      </c>
+      <c r="AC9" s="24">
+        <v>32</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -1205,8 +1306,20 @@
       <c r="Y10" s="13">
         <v>14</v>
       </c>
+      <c r="Z10" s="12">
+        <v>27</v>
+      </c>
+      <c r="AA10" s="13">
+        <v>29</v>
+      </c>
+      <c r="AB10" s="23">
+        <v>37</v>
+      </c>
+      <c r="AC10" s="24">
+        <v>29</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -1282,8 +1395,20 @@
       <c r="Y11" s="13">
         <v>16</v>
       </c>
+      <c r="Z11" s="12">
+        <v>19</v>
+      </c>
+      <c r="AA11" s="13">
+        <v>16</v>
+      </c>
+      <c r="AB11" s="23">
+        <v>28</v>
+      </c>
+      <c r="AC11" s="24">
+        <v>23</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29">
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
@@ -1359,8 +1484,20 @@
       <c r="Y12" s="13">
         <v>14</v>
       </c>
+      <c r="Z12" s="12">
+        <v>13</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>9</v>
+      </c>
+      <c r="AB12" s="23">
+        <v>13</v>
+      </c>
+      <c r="AC12" s="24">
+        <v>10</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
@@ -1436,8 +1573,20 @@
       <c r="Y13" s="13">
         <v>2</v>
       </c>
+      <c r="Z13" s="12">
+        <v>14</v>
+      </c>
+      <c r="AA13" s="13">
+        <v>10</v>
+      </c>
+      <c r="AB13" s="23">
+        <v>13</v>
+      </c>
+      <c r="AC13" s="24">
+        <v>9</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -1513,8 +1662,20 @@
       <c r="Y14" s="13">
         <v>3</v>
       </c>
+      <c r="Z14" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="13">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="23">
+        <v>3</v>
+      </c>
+      <c r="AC14" s="24">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29">
       <c r="A15" s="6" t="s">
         <v>2</v>
       </c>
@@ -1590,8 +1751,20 @@
       <c r="Y15" s="13">
         <v>1</v>
       </c>
+      <c r="Z15" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA15" s="13">
+        <v>8</v>
+      </c>
+      <c r="AB15" s="23">
+        <v>8</v>
+      </c>
+      <c r="AC15" s="24">
+        <v>6</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29">
       <c r="A16" s="6" t="s">
         <v>1</v>
       </c>
@@ -1667,8 +1840,20 @@
       <c r="Y16" s="13">
         <v>1</v>
       </c>
+      <c r="Z16" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>3</v>
+      </c>
+      <c r="AB16" s="23">
+        <v>4</v>
+      </c>
+      <c r="AC16" s="24">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:29" ht="15.75" thickBot="1">
       <c r="A17" s="7" t="s">
         <v>0</v>
       </c>
@@ -1744,9 +1929,23 @@
       <c r="Y17" s="9">
         <v>0</v>
       </c>
+      <c r="Z17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="26">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="Z4:AA4"/>
     <mergeCell ref="X4:Y4"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
